--- a/pred_ohlcv/54_21/2019-10-26 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BCH ohlcv.xlsx
@@ -2472,7 +2472,7 @@
         <v>662.1384312900005</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>657.2282312900005</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>657.2091312900005</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>723.7320312900005</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>609.7953312900005</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>646.2111312900005</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>675.7913312900005</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>803.6317312900005</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4297.730825820001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5401.196725260001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4570.823026190001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>5154.935976510001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4438.824576510001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3718.253076510001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>4168.602895560001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3842.271095560001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3580.308495560002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3715.438195560002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3285.522595560002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3458.179195690002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3311.729195690002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3367.266695690002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3471.959295690001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3436.513095690002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3737.600900290001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3730.218200290001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3724.180800290001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3750.41250029</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3750.41250029</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3919.02890029</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4998.18869704</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>5814.924858679999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>6245.45645868</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>6713.497033199999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4186.07477888</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3940.14427888</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4058.77957888</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3816.41687888</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3533.97907888</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3718.30757888</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3202.54747888</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2715.05837888</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2238.07237888</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2752.45817888</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2453.03284131</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2717.57484131</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2806.652141309999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2427.122673489999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>6378.030225229998</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>6561.455525229998</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>6204.824125229998</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>5882.889725229998</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>5687.687725229997</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>5575.939425229997</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>5776.897525229997</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6035.295925229997</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>5861.743025229997</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>5775.789525229998</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>5672.041325229998</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>5614.580148469997</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>5801.104848469997</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>5980.389348469997</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>6659.032592499996</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>5840.512992499996</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>5520.434392499997</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>5222.326092499997</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>4654.729692499996</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>4930.417592499996</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>5284.688792499996</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>4926.524692499996</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>5037.053392499996</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>4746.853843369996</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>5153.841943369996</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>5286.806743369995</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>5032.047943369996</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>4924.763443369996</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>4924.763443369996</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>5005.673143369996</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>5047.366415129996</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>5484.372215129996</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>5244.317415129996</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>5135.935646859996</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>4705.622546859996</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>4552.178541129996</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>4267.578341129996</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>4064.556129159996</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>4361.216029159996</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>4154.416929159996</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>4079.265529159995</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BCH ohlcv.xlsx
@@ -2472,7 +2472,7 @@
         <v>662.1384312900005</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>657.2282312900005</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>657.2091312900005</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>723.7320312900005</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>609.7953312900005</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>646.2111312900005</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>675.7913312900005</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>803.6317312900005</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>771.8182312900005</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4297.730825820001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5401.196725260001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4570.823026190001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>5154.935976510001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4438.824576510001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3718.253076510001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>4168.602895560001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3842.271095560001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3580.308495560002</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3715.438195560002</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3285.522595560002</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3458.179195690002</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3311.729195690002</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3367.266695690002</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3471.959295690001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3436.513095690002</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3737.600900290001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3730.218200290001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3724.180800290001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3750.41250029</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3750.41250029</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3919.02890029</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4998.18869704</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>5814.924858679999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>6245.45645868</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>6713.497033199999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4186.07477888</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3940.14427888</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4058.77957888</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3816.41687888</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3533.97907888</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3718.30757888</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3202.54747888</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2715.05837888</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2238.07237888</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2752.45817888</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2453.03284131</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2717.57484131</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2806.652141309999</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2427.122673489999</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>5829.432485060001</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>6372.823685060001</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>5921.19278506</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5587.347985060001</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>5923.33478506</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5642.50745284</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5768.83595284</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5876.23295284</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5582.047052839999</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5196.758152839999</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>5400.622752839999</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>5854.223152839999</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>5897.195152839999</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>5971.718346389998</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>5855.552446389998</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>5648.826546389998</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>5372.092046389998</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>5372.092046389998</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>5523.763346389998</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>5556.449246389999</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>5637.136346389999</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>5810.872246389999</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>5646.534422899998</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>5646.534422899998</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>5708.603322899999</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>5774.204322899998</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>6270.918425229998</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>6378.030225229998</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>6561.455525229998</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>6204.824125229998</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>5882.889725229998</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>5687.687725229997</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>5575.939425229997</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>5749.773825229997</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>5776.897525229997</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6035.295925229997</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>5861.743025229997</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>5775.789525229998</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>5672.041325229998</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>5498.205870629998</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>5225.187283479998</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>5245.112483479998</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>5914.393496329998</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>5533.319596329998</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>6038.757096329998</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>5688.665574999997</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>5723.297674999997</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>6059.393871799997</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>5864.270871799998</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>5338.230277449998</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>5467.996577449998</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>5467.996577449998</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>5265.465467329997</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>5386.149167329997</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>5490.298923829997</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>5562.814723829997</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>5467.278948469997</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>5614.580148469997</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>5801.104848469997</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>5980.389348469997</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>6659.032592499996</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>5840.512992499996</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>5520.434392499997</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>5222.326092499997</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>4654.729692499996</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>4930.417592499996</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>5284.688792499996</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>4926.524692499996</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>5037.053392499996</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>4746.853843369996</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>5153.841943369996</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>5286.806743369995</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>5032.047943369996</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>4924.763443369996</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>4924.763443369996</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>5005.673143369996</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>5047.366415129996</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>5484.372215129996</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>5244.317415129996</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>5135.935646859996</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>4705.622546859996</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>4552.178541129996</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>4267.578341129996</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>4064.556129159996</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>4361.216029159996</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>4154.416929159996</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>4079.265529159995</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>3673.584129159995</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>4101.924329159995</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>4173.113929159995</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>3990.931729159995</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>3895.264516279994</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>4125.236716279995</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>4646.033215559994</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>4777.994615559995</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>4563.811315559995</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>4569.335415559995</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>4363.060615559995</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
